--- a/stock.xlsx
+++ b/stock.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>medname</t>
-  </si>
-  <si>
-    <t>Total Stock</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Purchased quantity</t>
+  </si>
+  <si>
+    <t>Saled quantity</t>
+  </si>
+  <si>
+    <t>Total Count</t>
+  </si>
+  <si>
+    <t>jalebi</t>
+  </si>
+  <si>
+    <t>samosha</t>
+  </si>
+  <si>
+    <t>vada pav</t>
   </si>
 </sst>
 </file>
@@ -377,18 +392,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Medicine</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>samosha</t>
+  </si>
+  <si>
+    <t>siddharth</t>
+  </si>
+  <si>
+    <t>siddhu</t>
   </si>
   <si>
     <t>vada pav</t>
@@ -392,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,12 +451,40 @@
         <v>6</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>48</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>46</v>
       </c>
     </row>
